--- a/static/jiguanrenyuanluru.xlsx
+++ b/static/jiguanrenyuanluru.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beike\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/didi/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="审计机关人员录入" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,15 @@
     <definedName name="_522700_黔南布依族苗族自治州">Sheet1!$I$2:$I$13</definedName>
     <definedName name="guizhoushi">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -196,9 +204,6 @@
     <t>_520403_平坝区</t>
   </si>
   <si>
-    <t>_520_521_大方县</t>
-  </si>
-  <si>
     <t>_520603_万山区</t>
   </si>
   <si>
@@ -223,9 +228,6 @@
     <t>_520422_普定县</t>
   </si>
   <si>
-    <t>_520_522_黔西县</t>
-  </si>
-  <si>
     <t>_520621_江口县</t>
   </si>
   <si>
@@ -245,9 +247,6 @@
   </si>
   <si>
     <t>_520423_镇宁布依族苗族自治县</t>
-  </si>
-  <si>
-    <t>_520_523_金沙县</t>
   </si>
   <si>
     <t>_520622_玉屏侗族自治县</t>
@@ -271,9 +270,6 @@
     <t>_520424_关岭布依族苗族自治县</t>
   </si>
   <si>
-    <t>_520_524_织金县</t>
-  </si>
-  <si>
     <t>_520623_石阡县</t>
   </si>
   <si>
@@ -295,9 +291,6 @@
     <t>_520425_紫云苗族布依族自治县</t>
   </si>
   <si>
-    <t>_520_525_纳雍县</t>
-  </si>
-  <si>
     <t>_520624_思南县</t>
   </si>
   <si>
@@ -316,9 +309,6 @@
     <t>_520325_道真仡佬族苗族自治县</t>
   </si>
   <si>
-    <t>_520_526_威宁彝族回族苗族自治县</t>
-  </si>
-  <si>
     <t>_520625_印江土家族苗族自治县</t>
   </si>
   <si>
@@ -335,9 +325,6 @@
   </si>
   <si>
     <t>_520326_务川仡佬族苗族自治县</t>
-  </si>
-  <si>
-    <t>_520_527_赫章县</t>
   </si>
   <si>
     <t>_520626_德江县</t>
@@ -413,11 +400,39 @@
     <t>所属机构-所属部门</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>_520521_大方县</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_520522_黔西县</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_520523_金沙县</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_520524_织金县</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_520525_纳雍县</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_520526_威宁彝族回族苗族自治县</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_520527_赫章县</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -555,7 +570,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -857,14 +872,14 @@
   <dimension ref="A1:X1172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11" style="5"/>
     <col min="2" max="2" width="11" style="13"/>
-    <col min="14" max="14" width="27.25" customWidth="1"/>
+    <col min="14" max="14" width="27.1640625" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -909,7 +924,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>13</v>
@@ -14403,20 +14418,20 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B5 D1:D8 G1:G9 E1:E10 A1:A12 F1:F12 I1:I13 C1:C16 H1:H17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.75" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="25.25" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -14520,243 +14535,243 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" t="s">
         <v>54</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>55</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>56</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>57</v>
       </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
         <v>62</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>63</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>64</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>65</v>
       </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="I5" t="s">
+      <c r="C6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>68</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" t="s">
         <v>69</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>70</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>71</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>72</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>73</v>
       </c>
-      <c r="H6" t="s">
+      <c r="C7" t="s">
         <v>74</v>
       </c>
-      <c r="I6" t="s">
+      <c r="D7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
         <v>76</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>77</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>78</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
         <v>79</v>
       </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="G7" t="s">
+      <c r="C8" t="s">
         <v>81</v>
       </c>
-      <c r="H7" t="s">
+      <c r="D8" t="s">
         <v>82</v>
       </c>
-      <c r="I7" t="s">
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="G8" t="s">
         <v>84</v>
       </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
         <v>85</v>
       </c>
-      <c r="D8" t="s">
+      <c r="I8" t="s">
         <v>86</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>87</v>
       </c>
-      <c r="F8" t="s">
+      <c r="C9" t="s">
         <v>88</v>
       </c>
-      <c r="G8" t="s">
+      <c r="E9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" t="s">
         <v>89</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G9" t="s">
         <v>90</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="I9" t="s">
         <v>92</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>93</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C10" t="s">
         <v>94</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" t="s">
         <v>95</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H10" t="s">
         <v>96</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I10" t="s">
         <v>97</v>
       </c>
-      <c r="I9" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C11" t="s">
         <v>99</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F11" t="s">
         <v>100</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H11" t="s">
         <v>101</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I11" t="s">
         <v>102</v>
       </c>
-      <c r="H10" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>103</v>
       </c>
-      <c r="I10" t="s">
+      <c r="C12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="F12" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
+      <c r="H12" t="s">
         <v>106</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I12" t="s">
         <v>107</v>
       </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
         <v>108</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="I13" t="s">
         <v>110</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
         <v>111</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H14" t="s">
         <v>112</v>
       </c>
-      <c r="H12" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
         <v>113</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C13" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
         <v>115</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H16" t="s">
         <v>116</v>
       </c>
-      <c r="I13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.15">
       <c r="H17" s="9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/static/jiguanrenyuanluru.xlsx
+++ b/static/jiguanrenyuanluru.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>姓名</t>
   </si>
@@ -428,6 +428,50 @@
     <t>_520527_赫章县</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>_520223_中山开发区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_520224_红果开发区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_520426_安顺开发区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_520427_黄果树风景区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_520528_百里杜鹃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_520529_双山新区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_520530_毕节经济开发区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_520629_大龙开发区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_522329_义龙开发区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_522637_凯里开发区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_522733_都匀开发区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -437,7 +481,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -467,6 +511,13 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -527,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -563,6 +614,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14415,10 +14469,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -14583,6 +14637,9 @@
       <c r="A6" t="s">
         <v>66</v>
       </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
       <c r="C6" t="s">
         <v>67</v>
       </c>
@@ -14608,6 +14665,9 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
       </c>
       <c r="C7" t="s">
         <v>74</v>
@@ -14664,6 +14724,9 @@
       <c r="C9" t="s">
         <v>88</v>
       </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
       <c r="E9" t="s">
         <v>124</v>
       </c>
@@ -14687,11 +14750,17 @@
       <c r="C10" t="s">
         <v>94</v>
       </c>
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
       <c r="E10" t="s">
         <v>125</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>134</v>
       </c>
       <c r="H10" t="s">
         <v>96</v>
@@ -14706,6 +14775,9 @@
       </c>
       <c r="C11" t="s">
         <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>130</v>
       </c>
       <c r="F11" t="s">
         <v>100</v>
@@ -14724,6 +14796,9 @@
       <c r="C12" t="s">
         <v>104</v>
       </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
       <c r="F12" t="s">
         <v>105</v>
       </c>
@@ -14734,9 +14809,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="H13" t="s">
         <v>109</v>
@@ -14745,12 +14826,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
         <v>111</v>
       </c>
       <c r="H14" t="s">
         <v>112</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -14774,6 +14858,11 @@
         <v>117</v>
       </c>
     </row>
+    <row r="18" spans="8:8" ht="15" x14ac:dyDescent="0.15">
+      <c r="H18" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="2" type="noConversion"/>
